--- a/service-system/target/classes/static/雷达厚度-5车道.xlsx
+++ b/service-system/target/classes/static/雷达厚度-5车道.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A23C44-631C-4C91-B23B-22BE6BF4261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BA1F11-C0F5-48DB-A695-9786EB64725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匝道桥" sheetId="28" r:id="rId1"/>
@@ -483,29 +483,11 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,29 +516,29 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,6 +559,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D74F03-475B-4FBC-AF71-A7DE6274D47F}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B32"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -967,31 +967,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -999,20 +999,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -1020,41 +1020,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1085,12 +1085,12 @@
       <c r="L5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1102,12 +1102,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1119,12 +1119,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1136,12 +1136,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1153,12 +1153,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1170,12 +1170,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1187,12 +1187,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1204,12 +1204,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1221,12 +1221,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1238,12 +1238,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1255,12 +1255,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1272,12 +1272,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1289,12 +1289,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1306,12 +1306,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1323,12 +1323,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1340,12 +1340,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -1357,12 +1357,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1374,12 +1374,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -1391,12 +1391,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -1408,12 +1408,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -1425,12 +1425,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -1442,12 +1442,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1459,12 +1459,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -1476,12 +1476,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -1493,12 +1493,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1510,12 +1510,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -1527,12 +1527,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -1544,28 +1544,19 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:L4"/>
@@ -1582,13 +1573,22 @@
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -1599,6 +1599,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1606,8 +1609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1615,36 +1618,38 @@
     <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
     <col min="3" max="12" width="7.625" style="6" customWidth="1"/>
-    <col min="13" max="15" width="10.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="7.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="7" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -1652,20 +1657,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -1673,41 +1678,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -1738,12 +1743,12 @@
       <c r="L5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1755,12 +1760,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1772,12 +1777,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -1789,12 +1794,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -1806,12 +1811,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1823,12 +1828,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -1840,12 +1845,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -1857,12 +1862,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -1874,12 +1879,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1891,12 +1896,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1908,12 +1913,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1925,12 +1930,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -1942,12 +1947,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1959,12 +1964,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -1976,12 +1981,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1993,12 +1998,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -2010,12 +2015,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -2027,12 +2032,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -2044,12 +2049,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -2061,12 +2066,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -2078,12 +2083,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -2095,12 +2100,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -2112,12 +2117,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -2129,12 +2134,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -2146,12 +2151,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -2163,12 +2168,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -2180,12 +2185,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -2197,12 +2202,35 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="M4:O5"/>
@@ -2219,29 +2247,6 @@
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -2250,11 +2255,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -3966,7 +3970,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3981,31 +3985,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -4013,20 +4017,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -4034,41 +4038,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -4099,12 +4103,12 @@
       <c r="L5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4116,12 +4120,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -4133,12 +4137,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -4150,12 +4154,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -4167,12 +4171,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -4184,12 +4188,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4201,12 +4205,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4218,12 +4222,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4235,12 +4239,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -4252,12 +4256,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4269,12 +4273,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4286,12 +4290,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4303,12 +4307,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4320,12 +4324,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4337,12 +4341,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -4354,12 +4358,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -4371,12 +4375,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -4388,12 +4392,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -4405,12 +4409,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4422,12 +4426,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -4439,12 +4443,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -4456,12 +4460,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -4473,12 +4477,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -4490,12 +4494,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -4507,12 +4511,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -4524,12 +4528,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -4541,12 +4545,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -4558,28 +4562,19 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:L4"/>
@@ -4596,13 +4591,22 @@
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -4613,6 +4617,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4620,8 +4627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7996309A-7200-44FB-81A7-6CCC0B1B8374}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4636,31 +4643,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -4668,20 +4675,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -4689,41 +4696,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -4754,12 +4761,12 @@
       <c r="L5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -4771,12 +4778,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -4788,12 +4795,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -4805,12 +4812,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -4822,12 +4829,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -4839,12 +4846,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4856,12 +4863,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4873,12 +4880,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4890,12 +4897,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -4907,12 +4914,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -4924,12 +4931,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -4941,12 +4948,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -4958,12 +4965,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -4975,12 +4982,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -4992,12 +4999,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5009,12 +5016,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5026,12 +5033,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5043,12 +5050,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5060,12 +5067,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5077,12 +5084,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5094,12 +5101,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5111,12 +5118,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5128,12 +5135,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5145,12 +5152,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5162,12 +5169,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -5179,12 +5186,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5196,12 +5203,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5213,22 +5220,25 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A6:A32"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:N9"/>
@@ -5245,19 +5255,16 @@
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="A6:A32"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -5268,6 +5275,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5276,7 +5286,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B32"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5291,31 +5301,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -5323,20 +5333,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -5344,41 +5354,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -5409,12 +5419,12 @@
       <c r="L5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -5426,12 +5436,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -5443,12 +5453,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -5460,12 +5470,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -5477,12 +5487,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -5494,12 +5504,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5511,12 +5521,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -5528,12 +5538,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -5545,12 +5555,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5562,12 +5572,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5579,12 +5589,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -5596,12 +5606,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5613,12 +5623,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -5630,12 +5640,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -5647,12 +5657,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -5664,12 +5674,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5681,12 +5691,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -5698,12 +5708,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -5715,12 +5725,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -5732,12 +5742,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5749,12 +5759,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5766,12 +5776,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5783,12 +5793,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5800,12 +5810,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5817,12 +5827,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -5834,12 +5844,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5851,12 +5861,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5868,28 +5878,19 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:L4"/>
@@ -5906,13 +5907,22 @@
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -5923,6 +5933,9 @@
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5931,128 +5944,129 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
-    <col min="2" max="6" width="6.375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="10" customWidth="1"/>
+    <col min="2" max="3" width="6" style="21" customWidth="1"/>
+    <col min="4" max="6" width="6.375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11" style="10" customWidth="1"/>
     <col min="8" max="12" width="6.375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="10" customWidth="1"/>
     <col min="14" max="18" width="6.375" style="11" customWidth="1"/>
     <col min="19" max="19" width="7.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="I3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="43" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="52" t="s">
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
@@ -6068,7 +6082,7 @@
       <c r="F5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="14" t="s">
         <v>8</v>
       </c>
@@ -6084,7 +6098,7 @@
       <c r="L5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="14" t="s">
         <v>8</v>
       </c>
@@ -6100,7 +6114,7 @@
       <c r="R5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="52"/>
+      <c r="S5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
@@ -6121,7 +6135,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="44"/>
+      <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
@@ -6142,7 +6156,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="45"/>
+      <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -6163,7 +6177,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="45"/>
+      <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
@@ -6184,7 +6198,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-      <c r="S9" s="45"/>
+      <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
@@ -6205,7 +6219,7 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="45"/>
+      <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
@@ -6226,7 +6240,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="45"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
@@ -6247,7 +6261,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="45"/>
+      <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
@@ -6268,7 +6282,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
-      <c r="S13" s="45"/>
+      <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
@@ -6289,7 +6303,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="45"/>
+      <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -6310,7 +6324,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="45"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -6331,7 +6345,7 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="45"/>
+      <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -6352,7 +6366,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -6373,7 +6387,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="45"/>
+      <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -6394,7 +6408,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="45"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
@@ -6415,7 +6429,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="45"/>
+      <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
@@ -6436,7 +6450,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
-      <c r="S21" s="45"/>
+      <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
@@ -6457,7 +6471,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
-      <c r="S22" s="45"/>
+      <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -6472,15 +6486,15 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="45"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -6495,15 +6509,15 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="45"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="52"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
@@ -6518,15 +6532,15 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="41" t="s">
+      <c r="M25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="45"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="52"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
@@ -6541,15 +6555,15 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41" t="s">
+      <c r="M26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="45"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -6564,15 +6578,15 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="45"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -6587,15 +6601,15 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41" t="s">
+      <c r="M28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="45"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="52"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
@@ -6610,15 +6624,15 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="45"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -6633,15 +6647,15 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41" t="s">
+      <c r="M30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="41"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="45"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
@@ -6656,15 +6670,15 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="41"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="45"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -6679,37 +6693,18 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="42" t="s">
+      <c r="M32" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="45"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:R24"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="M4:M5"/>
@@ -6726,6 +6721,25 @@
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="M29:N29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A4:A32 M6:M22 G6:G32 Q23:Q32">
@@ -6734,11 +6748,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -6748,128 +6761,133 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M22"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
-    <col min="2" max="6" width="6.375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="10" customWidth="1"/>
-    <col min="8" max="12" width="6.375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="10" customWidth="1"/>
-    <col min="14" max="18" width="6.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="10" customWidth="1"/>
+    <col min="2" max="3" width="6" style="21" customWidth="1"/>
+    <col min="4" max="4" width="6.125" style="21" customWidth="1"/>
+    <col min="5" max="6" width="6.375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="10" customWidth="1"/>
+    <col min="8" max="11" width="6.375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="6" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="10" customWidth="1"/>
+    <col min="14" max="15" width="6.375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="6" style="11" customWidth="1"/>
+    <col min="17" max="18" width="6.375" style="11" customWidth="1"/>
     <col min="19" max="19" width="7.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="I2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="I3" s="30" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="I3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="43" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="43" t="s">
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="52" t="s">
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
         <v>33</v>
       </c>
@@ -6885,7 +6903,7 @@
       <c r="F5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="50"/>
       <c r="H5" s="14" t="s">
         <v>22</v>
       </c>
@@ -6901,7 +6919,7 @@
       <c r="L5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="50"/>
       <c r="N5" s="14" t="s">
         <v>22</v>
       </c>
@@ -6917,7 +6935,7 @@
       <c r="R5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="52"/>
+      <c r="S5" s="46"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
@@ -6938,7 +6956,7 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
-      <c r="S6" s="44"/>
+      <c r="S6" s="51"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
@@ -6959,7 +6977,7 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
-      <c r="S7" s="45"/>
+      <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -6980,7 +6998,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
-      <c r="S8" s="45"/>
+      <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
@@ -7001,7 +7019,7 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
-      <c r="S9" s="45"/>
+      <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
@@ -7022,7 +7040,7 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
-      <c r="S10" s="45"/>
+      <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
@@ -7043,7 +7061,7 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="45"/>
+      <c r="S11" s="52"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
@@ -7064,7 +7082,7 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="45"/>
+      <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
@@ -7085,7 +7103,7 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
-      <c r="S13" s="45"/>
+      <c r="S13" s="52"/>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
@@ -7106,7 +7124,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="45"/>
+      <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
@@ -7127,7 +7145,7 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="45"/>
+      <c r="S15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
@@ -7148,7 +7166,7 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="45"/>
+      <c r="S16" s="52"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
@@ -7169,7 +7187,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="52"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -7190,7 +7208,7 @@
       <c r="P18" s="16"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
-      <c r="S18" s="45"/>
+      <c r="S18" s="52"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
@@ -7211,7 +7229,7 @@
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
-      <c r="S19" s="45"/>
+      <c r="S19" s="52"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
@@ -7232,7 +7250,7 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
-      <c r="S20" s="45"/>
+      <c r="S20" s="52"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
@@ -7253,7 +7271,7 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
-      <c r="S21" s="45"/>
+      <c r="S21" s="52"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
@@ -7274,7 +7292,7 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
-      <c r="S22" s="45"/>
+      <c r="S22" s="52"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
@@ -7289,15 +7307,15 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="42"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="51"/>
-      <c r="S23" s="45"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="52"/>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
@@ -7312,15 +7330,15 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="45"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="52"/>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
@@ -7335,15 +7353,15 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="41" t="s">
+      <c r="M25" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="41"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="45"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="52"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
@@ -7358,15 +7376,15 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41" t="s">
+      <c r="M26" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="41"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="45"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="52"/>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
@@ -7381,15 +7399,15 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="45"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="52"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
@@ -7404,15 +7422,15 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41" t="s">
+      <c r="M28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="41"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="45"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="52"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
@@ -7427,15 +7445,15 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="45"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="52"/>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
@@ -7450,15 +7468,15 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41" t="s">
+      <c r="M30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="41"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="45"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="52"/>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
@@ -7473,15 +7491,15 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41" t="s">
+      <c r="M31" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="N31" s="41"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="45"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="52"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
@@ -7496,32 +7514,23 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="42" t="s">
+      <c r="M32" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="42"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="45"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:S2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:R31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:R32"/>
     <mergeCell ref="S6:S32"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:R23"/>
@@ -7538,11 +7547,20 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:R29"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:R31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A4:A32 M6:M22 G6:G32 Q23:Q32">
@@ -7551,11 +7569,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L        检测：&amp;R   复核：</oddFooter>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -7565,13 +7582,13 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="M16" sqref="L16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.375" style="4" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.375" style="5" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="7.625" style="6" customWidth="1" collapsed="1"/>
     <col min="5" max="7" width="7.625" style="6" customWidth="1"/>
     <col min="8" max="8" width="7.625" style="6" customWidth="1" collapsed="1"/>
@@ -7582,31 +7599,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -7614,20 +7631,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -7635,41 +7652,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -7700,12 +7717,12 @@
       <c r="L5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -7717,12 +7734,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -7734,12 +7751,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -7751,12 +7768,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -7768,12 +7785,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -7785,12 +7802,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -7802,12 +7819,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -7819,12 +7836,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -7836,12 +7853,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -7853,12 +7870,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -7870,12 +7887,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -7887,12 +7904,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -7904,12 +7921,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -7921,12 +7938,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -7938,12 +7955,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -7955,12 +7972,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -7972,12 +7989,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -7989,12 +8006,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -8006,12 +8023,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -8023,12 +8040,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8040,12 +8057,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -8057,12 +8074,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8074,12 +8091,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -8091,12 +8108,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8108,12 +8125,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -8125,12 +8142,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -8142,12 +8159,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -8159,12 +8176,35 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="M4:O5"/>
@@ -8181,29 +8221,6 @@
     <mergeCell ref="M31:N31"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M19:N19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -8212,11 +8229,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -8226,44 +8242,46 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B32"/>
+      <selection activeCell="M4" sqref="M4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" customWidth="1"/>
     <col min="3" max="12" width="7.625" style="6" customWidth="1"/>
-    <col min="13" max="15" width="10.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="7" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -8271,20 +8289,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -8292,41 +8310,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -8357,12 +8375,12 @@
       <c r="L5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -8374,12 +8392,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -8391,12 +8409,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -8408,12 +8426,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -8425,12 +8443,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -8442,12 +8460,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -8459,12 +8477,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -8476,12 +8494,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -8493,12 +8511,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -8510,12 +8528,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -8527,12 +8545,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -8544,12 +8562,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -8561,12 +8579,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -8578,12 +8596,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -8595,12 +8613,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -8612,12 +8630,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -8629,12 +8647,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -8646,12 +8664,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -8663,12 +8681,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -8680,12 +8698,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -8697,12 +8715,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -8714,12 +8732,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -8731,12 +8749,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -8748,12 +8766,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8765,12 +8783,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -8782,12 +8800,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -8799,12 +8817,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -8816,35 +8834,12 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="M31:N31"/>
@@ -8861,6 +8856,29 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -8869,11 +8887,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -8883,44 +8900,46 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B32"/>
+      <selection activeCell="M4" sqref="M4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="5" customWidth="1"/>
     <col min="3" max="12" width="7.625" style="6" customWidth="1"/>
-    <col min="13" max="15" width="10.625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="7" customWidth="1"/>
     <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -8928,20 +8947,20 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -8949,41 +8968,41 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="37" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
@@ -9014,12 +9033,12 @@
       <c r="L5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -9031,12 +9050,12 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="39"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -9048,12 +9067,12 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -9065,12 +9084,12 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -9082,12 +9101,12 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
       <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -9099,12 +9118,12 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -9116,12 +9135,12 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
       <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -9133,12 +9152,12 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="39"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -9150,12 +9169,12 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="39"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -9167,12 +9186,12 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="39"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -9184,12 +9203,12 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="39"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -9201,12 +9220,12 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="18"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="39"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -9218,12 +9237,12 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="18"/>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="39"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -9235,12 +9254,12 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
       <c r="O18" s="18"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="39"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -9252,12 +9271,12 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
       <c r="O19" s="18"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="39"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -9269,12 +9288,12 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
       <c r="O20" s="18"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -9286,12 +9305,12 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
       <c r="O21" s="18"/>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="39"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -9303,12 +9322,12 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="39"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -9320,12 +9339,12 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
       <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="39"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -9337,12 +9356,12 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -9354,12 +9373,12 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
       <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="39"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -9371,12 +9390,12 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
       <c r="O26" s="18"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="39"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -9388,12 +9407,12 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
       <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="39"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -9405,12 +9424,12 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="18"/>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="39"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -9422,12 +9441,12 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="16"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="39"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -9439,12 +9458,12 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="16"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="39"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -9456,12 +9475,12 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="16"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="39"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -9473,35 +9492,12 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="M31:N31"/>
@@ -9518,6 +9514,29 @@
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="M28:N28"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B6:B32">
@@ -9526,11 +9545,10 @@
       <formula>16.2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.86614173228346458" header="0.51181102362204722" footer="0.59055118110236227"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" firstPageNumber="63" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;10陕西交建公路工程试验检测有限公司&amp;R&amp;10第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L           检测：&amp;R   复核：</oddFooter>
+  <headerFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
   </headerFooter>
 </worksheet>
 </file>